--- a/output/Figure_data_for_SI.xlsx
+++ b/output/Figure_data_for_SI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">stressor_group</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">Tropical/subtropical Forests &amp; Grasslands</t>
   </si>
   <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
     <t xml:space="preserve">stressor</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">eLand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel_production</t>
   </si>
   <si>
     <t xml:space="preserve">m2_per_t</t>
@@ -128,13 +122,13 @@
     <t xml:space="preserve">DE</t>
   </si>
   <si>
-    <t xml:space="preserve">DMC</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAS</t>
   </si>
   <si>
     <t xml:space="preserve">Stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">destination_region_group</t>
@@ -205,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">GAS_per_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
   </si>
   <si>
     <t xml:space="preserve">Land_per_RMC</t>
@@ -1348,17 +1345,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1375,30 +1361,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
         <v>14081497.5611227</v>
@@ -1409,13 +1395,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
         <v>42553484.9140022</v>
@@ -1426,13 +1412,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>8537815.98288856</v>
@@ -1443,13 +1429,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
         <v>208414372.925408</v>
@@ -1460,13 +1446,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
         <v>7167458.81206294</v>
@@ -1477,13 +1463,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
         <v>13983249.2399165</v>
@@ -1494,13 +1480,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
         <v>17694575.5686641</v>
@@ -1511,13 +1497,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
         <v>11045310.7008349</v>
@@ -1528,13 +1514,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v>5662014.26743605</v>
@@ -1545,13 +1531,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v>26454224.1419742</v>
@@ -1562,13 +1548,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
         <v>1170737657.03986</v>
@@ -1579,13 +1565,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
         <v>577572018.953656</v>
@@ -1596,13 +1582,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>77906850.8105289</v>
@@ -1613,13 +1599,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
         <v>325258866.025509</v>
@@ -1630,13 +1616,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
         <v>47899337.9388425</v>
@@ -1647,13 +1633,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
         <v>24604990.7998515</v>
@@ -1664,13 +1650,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="n">
         <v>0.00000925855005365149</v>
@@ -1681,13 +1667,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
         <v>149716976.609945</v>
@@ -1698,13 +1684,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
         <v>12707352.6147903</v>
@@ -1715,13 +1701,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
         <v>122950151.738592</v>
@@ -1732,13 +1718,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
         <v>19400002.3309128</v>
@@ -1749,13 +1735,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="n">
         <v>32968941.4949371</v>
@@ -1766,13 +1752,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
         <v>15898858.3114873</v>
@@ -1783,13 +1769,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
         <v>61671149.2164774</v>
@@ -1800,13 +1786,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
         <v>36039407.5004825</v>
@@ -1817,13 +1803,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
         <v>183328012.105995</v>
@@ -1834,13 +1820,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
         <v>22592281.6713704</v>
@@ -1851,13 +1837,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
         <v>6201478.09103489</v>
@@ -1868,13 +1854,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
         <v>102124634.637367</v>
@@ -1885,13 +1871,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" t="n">
         <v>15884061.153683</v>
@@ -1902,13 +1888,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
         <v>7070726.15714077</v>
@@ -1919,13 +1905,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
         <v>4027319.43050647</v>
@@ -1936,13 +1922,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
         <v>17288464.0958903</v>
@@ -1953,13 +1939,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
         <v>2805128.09247812</v>
@@ -1970,13 +1956,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n">
         <v>10554072.7351271</v>
@@ -1987,13 +1973,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>5642089.71099833</v>
@@ -2004,13 +1990,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
         <v>526308012.129567</v>
@@ -2021,13 +2007,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
         <v>6815373.04732157</v>
@@ -2038,13 +2024,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
         <v>194693133.802221</v>
@@ -2055,13 +2041,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" t="n">
         <v>30177773.6537607</v>
@@ -2072,13 +2058,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n">
         <v>32994139.5769031</v>
@@ -2089,13 +2075,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
         <v>3163379.82048289</v>
@@ -2106,13 +2092,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n">
         <v>81577642.6951781</v>
@@ -2123,13 +2109,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
         <v>6736347.34912165</v>
@@ -2140,13 +2126,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n">
         <v>55992156.2348459</v>
@@ -2157,13 +2143,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>10449053.4149002</v>
@@ -2174,13 +2160,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
         <v>19440751.6482607</v>
@@ -2191,13 +2177,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
         <v>6504671.87959299</v>
@@ -2208,13 +2194,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
         <v>37060110.2655542</v>
@@ -2225,13 +2211,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
         <v>9124049.15071379</v>
@@ -2242,13 +2228,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" t="n">
         <v>82086791.5139357</v>
@@ -2259,13 +2245,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
         <v>36018349.1784179</v>
@@ -2276,13 +2262,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
         <v>6230.91243807819</v>
@@ -2293,13 +2279,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
         <v>48884.6326104811</v>
@@ -2310,13 +2296,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" t="n">
         <v>37297.3316391747</v>
@@ -2327,13 +2313,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
         <v>168519.553156656</v>
@@ -2344,13 +2330,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" t="n">
         <v>3044.17637898781</v>
@@ -2361,13 +2347,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
         <v>16564.7688269264</v>
@@ -2378,13 +2364,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
         <v>28470.0514441079</v>
@@ -2395,13 +2381,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
         <v>9185.03033307348</v>
@@ -2412,13 +2398,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>10129.7221717839</v>
@@ -2429,13 +2415,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
         <v>23421.0472425639</v>
@@ -2446,13 +2432,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" t="n">
         <v>1015430.38258298</v>
@@ -2463,13 +2449,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
         <v>420015.34434774</v>
@@ -2480,13 +2466,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
         <v>91697.0580444984</v>
@@ -2497,13 +2483,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
         <v>392117.332406464</v>
@@ -2514,13 +2500,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
         <v>42034.3681422037</v>
@@ -2531,13 +2517,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
         <v>24560.0003551846</v>
@@ -2548,13 +2534,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2565,13 +2551,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
         <v>108421.351082277</v>
@@ -2582,13 +2568,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72" t="n">
         <v>4460.13333754514</v>
@@ -2599,13 +2585,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
         <v>156566.340738351</v>
@@ -2616,13 +2602,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D74" t="n">
         <v>21390.5297388246</v>
@@ -2633,13 +2619,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
         <v>63268.6087703759</v>
@@ -2650,13 +2636,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" t="n">
         <v>6031.18820650936</v>
@@ -2667,13 +2653,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D77" t="n">
         <v>68395.9556647771</v>
@@ -2684,13 +2670,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D78" t="n">
         <v>27805.2816512923</v>
@@ -2701,13 +2687,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
         <v>185289.718932631</v>
@@ -2718,13 +2704,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D80" t="n">
         <v>17.5192255563304</v>
@@ -2735,13 +2721,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
         <v>87.0384236465764</v>
@@ -2752,13 +2738,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" t="n">
         <v>68.3053647378669</v>
@@ -2769,13 +2755,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
         <v>327.810064425446</v>
@@ -2786,13 +2772,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D84" t="n">
         <v>10.1262915421493</v>
@@ -2803,13 +2789,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
         <v>27.5278202156354</v>
@@ -2820,13 +2806,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D86" t="n">
         <v>29.6181965733427</v>
@@ -2837,13 +2823,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
         <v>19.4156275790363</v>
@@ -2854,13 +2840,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D88" t="n">
         <v>26.1789056600055</v>
@@ -2871,13 +2857,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D89" t="n">
         <v>42.4280755690626</v>
@@ -2888,13 +2874,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D90" t="n">
         <v>1804.75200541428</v>
@@ -2905,13 +2891,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
         <v>937.598659128709</v>
@@ -2922,13 +2908,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D92" t="n">
         <v>194.930675280282</v>
@@ -2939,13 +2925,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D93" t="n">
         <v>650.374404774465</v>
@@ -2956,13 +2942,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D94" t="n">
         <v>58.4963094005666</v>
@@ -2973,13 +2959,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
         <v>47.0461201350507</v>
@@ -2990,13 +2976,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3007,13 +2993,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
         <v>239.819532038397</v>
@@ -3024,13 +3010,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D98" t="n">
         <v>26.9499681390815</v>
@@ -3041,13 +3027,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D99" t="n">
         <v>272.724369317692</v>
@@ -3058,13 +3044,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D100" t="n">
         <v>37.1579130596039</v>
@@ -3075,13 +3061,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D101" t="n">
         <v>115.82170920687</v>
@@ -3092,13 +3078,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
         <v>25.4384708205376</v>
@@ -3109,13 +3095,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D103" t="n">
         <v>114.893463899518</v>
@@ -3126,13 +3112,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D104" t="n">
         <v>48.0641672527357</v>
@@ -3143,13 +3129,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D105" t="n">
         <v>362.760882672153</v>
@@ -3160,13 +3146,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D106" t="n">
         <v>597745775</v>
@@ -3177,13 +3163,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D107" t="n">
         <v>318857056</v>
@@ -3194,13 +3180,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D108" t="n">
         <v>127131800</v>
@@ -3211,13 +3197,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D109" t="n">
         <v>1364270000</v>
@@ -3228,13 +3214,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D110" t="n">
         <v>35540419</v>
@@ -3245,13 +3231,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D111" t="n">
         <v>1361568498</v>
@@ -3262,13 +3248,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D112" t="n">
         <v>206077898</v>
@@ -3279,13 +3265,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D113" t="n">
         <v>1295291543</v>
@@ -3296,13 +3282,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D114" t="n">
         <v>419253506</v>
@@ -3313,13 +3299,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D115" t="n">
         <v>143819569</v>
@@ -3330,13 +3316,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D116" t="n">
         <v>23490736</v>
@@ -3347,13 +3333,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D117" t="n">
         <v>1063374417</v>
@@ -3364,13 +3350,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
         <v>301006711</v>
@@ -3395,19 +3381,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -3446,7 +3432,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>694.664828503174</v>
@@ -3633,7 +3619,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>183.719632404784</v>
@@ -3664,10 +3650,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3678,7 +3664,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
         <v>0.390775568748773</v>
@@ -3689,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>1.28149829285516</v>
@@ -3700,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>2.01012311678992</v>
@@ -3711,7 +3697,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
         <v>1.05217129082272</v>
@@ -3722,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>0.455711072121165</v>
@@ -3733,7 +3719,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
         <v>0.90365390485155</v>
@@ -3744,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
         <v>1.93039314559201</v>
@@ -3755,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
         <v>0.944017272681783</v>
@@ -3763,10 +3749,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
         <v>0.694664828503174</v>
@@ -3774,10 +3760,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
         <v>1.17765167023478</v>
@@ -3785,10 +3771,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>1.8863850904211</v>
@@ -3796,10 +3782,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
         <v>0.85282636667047</v>
@@ -3810,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>0.472443502308623</v>
@@ -3821,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>0.900385073161583</v>
@@ -3832,7 +3818,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>1.60293452524369</v>
@@ -3843,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>0.834752270253014</v>
@@ -3854,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>0.376198238215873</v>
@@ -3865,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>0.674476899206922</v>
@@ -3876,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>1.41415483874352</v>
@@ -3887,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>0.80939826040755</v>
@@ -3898,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="n">
         <v>0.37040152780045</v>
@@ -3909,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
         <v>0.687980446029326</v>
@@ -3920,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
         <v>1.2884301670429</v>
@@ -3931,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>0.668308875635869</v>
@@ -3942,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
         <v>0.180402595476098</v>
@@ -3953,7 +3939,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="n">
         <v>0.36412947271348</v>
@@ -3964,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="n">
         <v>1.06369128575593</v>
@@ -3975,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
         <v>0.58864825626894</v>
@@ -3986,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="n">
         <v>0.22072999445433</v>
@@ -3997,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
         <v>0.450679335031114</v>
@@ -4008,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" t="n">
         <v>0.995573608512582</v>
@@ -4019,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="n">
         <v>0.534959747378842</v>
@@ -4030,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
         <v>0.0975048386235402</v>
@@ -4041,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" t="n">
         <v>0.139461274345388</v>
@@ -4052,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
         <v>0.237938297256793</v>
@@ -4063,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
         <v>0.182722563373494</v>
@@ -4074,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="n">
         <v>0.110158075616112</v>
@@ -4085,7 +4071,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" t="n">
         <v>0.18501934132416</v>
@@ -4096,7 +4082,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="n">
         <v>0.334718571727473</v>
@@ -4107,7 +4093,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" t="n">
         <v>0.177523008886386</v>
@@ -4118,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" t="n">
         <v>0.0866711413817172</v>
@@ -4129,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="n">
         <v>0.159339900436134</v>
@@ -4140,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="n">
         <v>0.290925818087863</v>
@@ -4151,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>0.151161608907781</v>
@@ -4162,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" t="n">
         <v>0.0270777247431234</v>
@@ -4173,7 +4159,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="n">
         <v>0.0532596812277128</v>
@@ -4184,7 +4170,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" t="n">
         <v>0.0983262786196096</v>
@@ -4195,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="n">
         <v>0.0518307984162828</v>
@@ -4206,7 +4192,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>0.0279145799976755</v>
@@ -4217,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" t="n">
         <v>0.0559752969364472</v>
@@ -4228,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" t="n">
         <v>0.0814816016563905</v>
@@ -4239,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
         <v>0.0514126482622981</v>
@@ -4247,10 +4233,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" t="n">
         <v>0.183719632404784</v>
@@ -4258,10 +4244,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="n">
         <v>0.44289169792582</v>
@@ -4269,10 +4255,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="n">
         <v>0.770630683698247</v>
@@ -4280,10 +4266,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
         <v>0.41050780659485</v>
@@ -4305,21 +4291,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -4333,10 +4319,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>0.518891590574424</v>
@@ -4347,7 +4333,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4361,7 +4347,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4375,7 +4361,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4389,7 +4375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -4403,7 +4389,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -4417,13 +4403,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.655272566503654</v>
+        <v>-0.489011170481132</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4431,13 +4417,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.591499626199888</v>
+        <v>-0.655272566503654</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -4445,13 +4431,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.664677931389545</v>
+        <v>-0.591499626199888</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -4459,13 +4445,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.842988652712975</v>
+        <v>-0.664677931389545</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -4473,13 +4459,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.831487770366095</v>
+        <v>-0.842988652712975</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -4487,13 +4473,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.476741741212144</v>
+        <v>-0.831487770366095</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4501,13 +4487,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.595113695866626</v>
+        <v>-0.476741741212144</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -4515,13 +4501,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.484509752597481</v>
+        <v>-0.595113695866626</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -4529,13 +4515,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.531125948262491</v>
+        <v>-0.484509752597481</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -4543,13 +4529,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.456962921478292</v>
+        <v>-0.531125948262491</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -4557,13 +4543,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.368138750188718</v>
+        <v>-0.456962921478292</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -4571,13 +4557,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.344344790340516</v>
+        <v>-0.368138750188718</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -4585,13 +4571,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.391666301221793</v>
+        <v>-0.344344790340516</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -4599,13 +4585,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.312566507704325</v>
+        <v>-0.199393842750588</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -4613,13 +4599,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.255423613051433</v>
+        <v>-0.391666301221793</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -4627,13 +4613,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.161428958185476</v>
+        <v>-0.312566507704325</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -4641,13 +4627,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.154984219036313</v>
+        <v>-0.255423613051433</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -4655,13 +4641,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292705181297811</v>
+        <v>-0.161428958185476</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -4669,13 +4655,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0189175870931392</v>
+        <v>-0.154984219036313</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -4683,13 +4669,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113018055602628</v>
+        <v>0.292705181297811</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -4697,13 +4683,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n">
-        <v>0.255244076596498</v>
+        <v>0.0189175870931392</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -4711,13 +4697,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.142482339908299</v>
+        <v>0.113018055602628</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -4725,13 +4711,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.471671437016757</v>
+        <v>0.255244076596498</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -4739,13 +4725,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248825793720727</v>
+        <v>0.142482339908299</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -4753,13 +4739,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0396772148461323</v>
+        <v>0.471671437016757</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -4767,13 +4753,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0666438041982049</v>
+        <v>0.248825793720727</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -4781,13 +4767,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0670245001253869</v>
+        <v>0.067202489802702</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -4795,13 +4781,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0514573448327712</v>
+        <v>0.0396772148461323</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -4809,13 +4795,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0235361457571776</v>
+        <v>0.0666438041982049</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -4823,13 +4809,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0644366724256227</v>
+        <v>0.0670245001253869</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -4837,13 +4823,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.132156005853423</v>
+        <v>0.0514573448327712</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4851,13 +4837,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00456727762230838</v>
+        <v>-0.0235361457571776</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -4865,13 +4851,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0785862815838741</v>
+        <v>-0.0644366724256227</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -4879,13 +4865,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00730631407240585</v>
+        <v>-0.132156005853423</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -4893,13 +4879,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0422260087029346</v>
+        <v>-0.00456727762230838</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -4907,13 +4893,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0190490712405889</v>
+        <v>0.0785862815838741</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -4921,13 +4907,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>0.18092402607581</v>
+        <v>-0.00730631407240585</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -4935,13 +4921,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00614296524775072</v>
+        <v>0.0422260087029346</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -4949,13 +4935,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00325660570295009</v>
+        <v>0.0190490712405889</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -4963,13 +4949,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00222106501387664</v>
+        <v>0.0113555433558992</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -4977,13 +4963,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0588715176817393</v>
+        <v>0.18092402607581</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -4991,13 +4977,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.102791265152626</v>
+        <v>0.00614296524775072</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -5005,13 +4991,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.189460524052485</v>
+        <v>-0.00325660570295009</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -5019,13 +5005,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.206638427094606</v>
+        <v>0.00222106501387664</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -5033,13 +5019,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.230735273365367</v>
+        <v>0.0588715176817393</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -5047,13 +5033,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.364828824484177</v>
+        <v>-0.102791265152626</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -5061,13 +5047,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.440539519179753</v>
+        <v>-0.189460524052485</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -5075,13 +5061,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.491565915127239</v>
+        <v>-0.206638427094606</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -5089,13 +5075,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.826337626803505</v>
+        <v>-0.230735273365367</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -5103,13 +5089,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.831279364458257</v>
+        <v>-0.364828824484177</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -5117,13 +5103,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.856333650018541</v>
+        <v>-0.440539519179753</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -5131,13 +5117,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.950739201051803</v>
+        <v>-0.491565915127239</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -5145,13 +5131,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.951136617477847</v>
+        <v>-0.609846980073119</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -5159,83 +5145,83 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0434696693159705</v>
+        <v>-0.826337626803505</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207279364362994</v>
+        <v>-0.831279364458257</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.629623517758323</v>
+        <v>-0.856333650018541</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231351486012808</v>
+        <v>-0.950739201051803</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.014132000511578</v>
+        <v>-0.951136617477847</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.629395502273999</v>
+        <v>0.0434696693159705</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -5243,13 +5229,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.436564698430218</v>
+        <v>0.207279364362994</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -5257,13 +5243,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.702402951991701</v>
+        <v>0.629623517758323</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -5271,13 +5257,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.631972095056711</v>
+        <v>0.231351486012808</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -5285,13 +5271,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.711488060442238</v>
+        <v>-0.014132000511578</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -5299,13 +5285,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.8961517107627</v>
+        <v>-0.629395502273999</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -5313,13 +5299,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.883670244319394</v>
+        <v>-0.436564698430218</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -5327,13 +5313,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C74" t="n">
-        <v>0.690433253824146</v>
+        <v>-0.5202698995062</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -5341,13 +5327,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
-        <v>0.10893117595959</v>
+        <v>-0.702402951991701</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -5355,13 +5341,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.0574615675687301</v>
+        <v>-0.631972095056711</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -5369,13 +5355,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0620349528211369</v>
+        <v>-0.711488060442238</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -5383,13 +5369,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0321721579403688</v>
+        <v>-0.8961517107627</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -5397,13 +5383,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101481988625719</v>
+        <v>-0.883670244319394</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -5411,13 +5397,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>0.106439681587505</v>
+        <v>0.690433253824146</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -5425,13 +5411,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.117535629626966</v>
+        <v>0.10893117595959</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -5439,13 +5425,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0335884876854246</v>
+        <v>-0.0574615675687301</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -5453,13 +5439,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0121639135697737</v>
+        <v>0.0620349528211369</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -5467,13 +5453,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0315518720186646</v>
+        <v>0.0321721579403688</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -5481,13 +5467,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0380313047621454</v>
+        <v>0.101481988625719</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -5495,13 +5481,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.331802652271782</v>
+        <v>0.106439681587505</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -5509,13 +5495,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0201964279923001</v>
+        <v>0.214939628540003</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -5523,13 +5509,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.276369211247241</v>
+        <v>-0.117535629626966</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -5537,13 +5523,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.166130022244796</v>
+        <v>-0.0335884876854246</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -5551,13 +5537,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.102773803164244</v>
+        <v>0.0121639135697737</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -5565,13 +5551,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>0.28401990329288</v>
+        <v>0.0315518720186646</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -5579,13 +5565,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0427520750879748</v>
+        <v>0.0380313047621454</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -5593,13 +5579,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.107229765054234</v>
+        <v>-0.331802652271782</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -5607,13 +5593,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0759067381410523</v>
+        <v>0.0201964279923001</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -5621,13 +5607,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.0670396764495127</v>
+        <v>-0.276369211247241</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -5635,13 +5621,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0433322620189675</v>
+        <v>-0.166130022244796</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -5649,13 +5635,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.12396787755211</v>
+        <v>-0.102773803164244</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -5663,13 +5649,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.102157656347604</v>
+        <v>0.28401990329288</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -5677,13 +5663,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.170087099766551</v>
+        <v>0.0427520750879748</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -5691,13 +5677,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.242137933406876</v>
+        <v>-0.13535912600709</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -5705,13 +5691,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0959318992462315</v>
+        <v>-0.107229765054234</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -5719,13 +5705,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.0895802756963015</v>
+        <v>-0.0759067381410523</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -5733,13 +5719,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.0288398694861035</v>
+        <v>-0.0670396764495127</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -5747,13 +5733,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.0516919246443097</v>
+        <v>-0.0433322620189675</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -5761,13 +5747,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.152919466129827</v>
+        <v>-0.12396787755211</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -5775,13 +5761,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.0392055350270795</v>
+        <v>-0.102157656347604</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -5789,13 +5775,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.0468781660644744</v>
+        <v>-0.170087099766551</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -5803,13 +5789,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.0280316874588978</v>
+        <v>-0.242137933406876</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -5817,13 +5803,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>0.033126410339533</v>
+        <v>-0.0959318992462315</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -5831,13 +5817,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299942614520731</v>
+        <v>-0.0895802756963015</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -5845,13 +5831,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>0.166319868548333</v>
+        <v>-0.0288398694861035</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -5859,13 +5845,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0536548055354765</v>
+        <v>-0.0516919246443097</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -5873,13 +5859,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0313245173429176</v>
+        <v>-0.0521340662398045</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -5887,13 +5873,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.174313921431755</v>
+        <v>0.152919466129827</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
@@ -5901,13 +5887,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.272733479841503</v>
+        <v>-0.0392055350270795</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -5915,13 +5901,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.339064866399048</v>
+        <v>-0.0468781660644744</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -5929,13 +5915,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.774248880543073</v>
+        <v>-0.0280316874588978</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -5943,13 +5929,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.780672855910267</v>
+        <v>0.033126410339533</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
@@ -5957,13 +5943,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.813241989386451</v>
+        <v>0.299942614520731</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -5971,13 +5957,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.935963788221901</v>
+        <v>0.166319868548333</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -5985,13 +5971,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.936480406769826</v>
+        <v>0.0536548055354765</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -5999,842 +5985,1052 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>17.016582304533</v>
+        <v>0.0313245173429176</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C123" t="n">
-        <v>16.6603127332154</v>
+        <v>-0.174313921431755</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>17.8389612485419</v>
+        <v>-0.272733479841503</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>15.4632779629176</v>
+        <v>-0.339064866399048</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C126" t="n">
-        <v>13.9117742948584</v>
+        <v>-0.492823463213091</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>12.0951603201287</v>
+        <v>-0.774248880543073</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="n">
-        <v>7.99820193732732</v>
+        <v>-0.780672855910267</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>8.30293416779829</v>
+        <v>-0.813241989386451</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>2.51913115128406</v>
+        <v>-0.935963788221901</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C131" t="n">
-        <v>2.71725681864032</v>
+        <v>-0.936480406769826</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C132" t="n">
-        <v>2.03822132735871</v>
+        <v>1.25338302026415</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.0305613193177764</v>
+        <v>1.41777220447394</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C134" t="n">
-        <v>3.17178654109852</v>
+        <v>1.96001063318836</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.0666594544479468</v>
+        <v>1.37531054195429</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.931902746831754</v>
+        <v>1.02581618385235</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.278006255053938</v>
+        <v>0.903534899981949</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.598733443149304</v>
+        <v>-0.0219361623757016</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.358295408029216</v>
+        <v>0.21012292849779</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0281052457391893</v>
+        <v>-0.434289879771155</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0724955262319709</v>
+        <v>-0.346298315919236</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.680514057169162</v>
+        <v>-0.475095341800297</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.350784197553261</v>
+        <v>-0.808418228598815</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.156230305424839</v>
+        <v>-0.793388827460428</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.0193715157239076</v>
+        <v>0.511065742328373</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>0.481672461919868</v>
+        <v>-0.304837589488868</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C147" t="n">
-        <v>2.28821666643856</v>
+        <v>-0.518830030133715</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>0.530977604653284</v>
+        <v>-0.342201471957028</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>1.10040397843366</v>
+        <v>-0.423796475092677</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>1.95164784986723</v>
+        <v>-0.335991097955503</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
-        <v>1.17868110731129</v>
+        <v>-0.213820071965703</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>2.98543207697504</v>
+        <v>-0.190166375459329</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
-        <v>1.67479314309238</v>
+        <v>-0.357867306807556</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C154" t="n">
-        <v>0.319752476236207</v>
+        <v>-0.244659475772085</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.430248424421144</v>
+        <v>-0.171370341659334</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="n">
-        <v>0.40758580877311</v>
+        <v>-0.0858984149211187</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>0.238610050241779</v>
+        <v>-0.0775396478257918</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.20481871378939</v>
+        <v>-0.172246493991759</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.52029347348687</v>
+        <v>0.320165663348717</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.85016531006635</v>
+        <v>-0.121937455070252</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.04935449945125</v>
+        <v>0.0333228720223202</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.521514837469028</v>
+        <v>0.266887594731067</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.916626527337993</v>
+        <v>0.0947576021095192</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.562255987642074</v>
+        <v>0.623785087300874</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.645006115945906</v>
+        <v>0.273263814402197</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>0.395669553276139</v>
+        <v>-0.0134772340094142</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.343815682985436</v>
+        <v>0.0263675291660234</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.349412999103099</v>
+        <v>0.0304453841248334</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.180543999578689</v>
+        <v>0.025006947201449</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C170" t="n">
-        <v>19.465222593762</v>
+        <v>-0.0751244973631948</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>17.3615764717191</v>
+        <v>-0.0291053580926462</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C172" t="n">
-        <v>15.5878707962971</v>
+        <v>-0.133467341965593</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C173" t="n">
-        <v>15.236321186846</v>
+        <v>-0.241751921338445</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>14.7431738641073</v>
+        <v>-0.0329693455899033</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>11.9989194920728</v>
+        <v>0.102792740709353</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C176" t="n">
-        <v>10.4494832723995</v>
+        <v>-0.0342961265275505</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C177" t="n">
-        <v>9.40521672117674</v>
+        <v>0.0459225769822901</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C178" t="n">
-        <v>2.55403912362725</v>
+        <v>0.00994546469373569</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C179" t="n">
-        <v>2.45290536252277</v>
+        <v>0.250747912799569</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C180" t="n">
-        <v>1.94016383160388</v>
+        <v>-0.00296239777869424</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.0157489228837471</v>
+      </c>
+      <c r="D181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C181" t="n">
-        <v>0.00813321562140537</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="C182" t="n">
+        <v>-0.00443010208823092</v>
+      </c>
+      <c r="D182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" t="s">
         <v>11</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.071294557428921</v>
+      </c>
+      <c r="D183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.56309691050812</v>
+      </c>
+      <c r="D184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>61</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.2996329363682</v>
+      </c>
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.07749122664594</v>
+      </c>
+      <c r="D186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.03346259642968</v>
+      </c>
+      <c r="D187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.971700044200098</v>
+      </c>
+      <c r="D188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.628005277608415</v>
+      </c>
+      <c r="D189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.433951429941759</v>
+      </c>
+      <c r="D190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.303165832134394</v>
+      </c>
+      <c r="D191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.554886507788556</v>
+      </c>
+      <c r="D192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>61</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.567552660303993</v>
+      </c>
+      <c r="D193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>61</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.631769222218544</v>
+      </c>
+      <c r="D194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>61</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.873739798406715</v>
+      </c>
+      <c r="D195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>61</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.874758415220494</v>
+      </c>
+      <c r="D196" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6853,7 +7049,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6864,7 +7060,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6875,7 +7071,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -6886,7 +7082,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -6897,7 +7093,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -6908,7 +7104,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -6919,7 +7115,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -6930,7 +7126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -6941,7 +7137,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -6952,7 +7148,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -6963,7 +7159,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -6974,7 +7170,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -6985,7 +7181,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -6996,7 +7192,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -7007,7 +7203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -7018,7 +7214,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -7029,7 +7225,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -7040,7 +7236,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -7051,7 +7247,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -7062,7 +7258,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -7073,7 +7269,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -7084,7 +7280,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -7095,7 +7291,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -7106,7 +7302,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -7117,7 +7313,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -7128,7 +7324,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -7139,7 +7335,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -7150,7 +7346,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -7161,7 +7357,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -7172,7 +7368,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -7183,7 +7379,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -7194,7 +7390,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -7205,7 +7401,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7216,7 +7412,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -7227,7 +7423,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -7238,7 +7434,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -7249,156 +7445,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>75.6928790215022</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="n">
-        <v>210745102.153308</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="n">
-        <v>88090595.2802599</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" t="n">
-        <v>114523770.097872</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>822941380.227114</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12564209.993073</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>138868534.732805</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>33827380.6787999</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="n">
-        <v>85779844.0000088</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="n">
-        <v>31117913.6550608</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="n">
-        <v>73905540.0000089</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4855000.05147647</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10479183.1883892</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="n">
-        <v>19161830.7157809</v>
       </c>
     </row>
   </sheetData>
@@ -7417,10 +7470,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7566,7 +7619,7 @@
         <v>532.690710710904</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7585,13 +7638,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -7599,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>0.122260742277131</v>
@@ -7610,10 +7663,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28016786268127</v>
+        <v>0.403165716836038</v>
       </c>
     </row>
     <row r="4">
@@ -7621,10 +7674,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>0.403165716836038</v>
+        <v>0.224870907455982</v>
       </c>
     </row>
     <row r="5">
@@ -7632,21 +7685,21 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224870907455982</v>
+        <v>6.53992209846921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>6.53992209846921</v>
+        <v>0.0567559300000178</v>
       </c>
     </row>
     <row r="7">
@@ -7654,10 +7707,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0567559300000178</v>
+        <v>0.219367419606478</v>
       </c>
     </row>
     <row r="8">
@@ -7665,10 +7718,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110087441593418</v>
+        <v>0.118105140692354</v>
       </c>
     </row>
     <row r="9">
@@ -7676,87 +7729,87 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219367419606478</v>
+        <v>4.52027479963613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118105140692354</v>
+        <v>0.0000000000000134737505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>4.52027479963613</v>
+        <v>0.149716976609954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0000000000000134737505</v>
+        <v>0.0883139900442998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>0.121993408591397</v>
+        <v>1.68317371950641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.149716976609954</v>
+        <v>1.49945000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0883139900442998</v>
+        <v>1.74830967599352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68317371950641</v>
+        <v>0.533123385176888</v>
       </c>
     </row>
     <row r="17">
@@ -7767,545 +7820,402 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>1.49945000000001</v>
+        <v>6.3151636434952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>2.07688105304006</v>
+        <v>0.043434250000115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>1.74830967599352</v>
+        <v>0.0321162384094102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>0.533123385176888</v>
+        <v>0.0161961624461254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>6.3151636434952</v>
+        <v>0.556096841381883</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.043434250000115</v>
+        <v>0.0624678974222449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0345824502748625</v>
+        <v>0.216952188908296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0321162384094102</v>
+        <v>0.11800869579105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0161961624461254</v>
+        <v>2.78452200037736</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.556096841381883</v>
+        <v>0.341202300000017</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0624678974222449</v>
+        <v>0.028739886269499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182657338499221</v>
+        <v>0.0200935921883684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216952188908296</v>
+        <v>0.507608634213603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11800869579105</v>
+        <v>0.13101650000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>2.78452200037736</v>
+        <v>0.0725043287386939</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>0.341202300000017</v>
+        <v>0.036157519397386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0302629982578777</v>
+        <v>0.870230644517091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.028739886269499</v>
+        <v>0.0540302400000183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0200935921883684</v>
+        <v>0.0775700075279647</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>0.507608634213603</v>
+        <v>0.046184159416268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>0.13101650000001</v>
+        <v>1.1261531523641</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0966420862146372</v>
+        <v>0.102758000003115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0725043287386939</v>
+        <v>0.05236894382585</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>0.036157519397386</v>
+        <v>0.0259454235278537</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>0.870230644517091</v>
+        <v>1.69320443986826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0540302400000183</v>
+        <v>0.737840800000026</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0763407429387352</v>
+        <v>0.0211507080519794</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0775700075279647</v>
+        <v>0.0110980455876472</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
-        <v>0.046184159416268</v>
+        <v>0.259391040355889</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C46" t="n">
-        <v>1.1261531523641</v>
+        <v>0.0352234200000068</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>0.102758000003115</v>
+        <v>0.0566349824751249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0458232404158346</v>
+        <v>0.0287937597624053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05236894382585</v>
+        <v>0.773380258213194</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0259454235278537</v>
+        <v>0.027814500000007</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>1.69320443986826</v>
+        <v>0.135657504353383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" t="n">
-        <v>0.737840800000026</v>
+        <v>0.0664412096497461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0158788068478379</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.0211507080519794</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0110980455876472</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.259391040355889</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0352234200000068</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.0425550974167209</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.0566349824751249</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.0287937597624053</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.773380258213194</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.027814500000007</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.100382052930858</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.135657504353383</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.0664412096497461</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" t="n">
         <v>1.14002825091584</v>
       </c>
     </row>
@@ -8328,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -8427,7 +8337,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>370664.143166768</v>
@@ -8570,7 +8480,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
         <v>2502743.88922638</v>
@@ -8713,7 +8623,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
         <v>97012616.7632343</v>
@@ -8856,7 +8766,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C49" t="n">
         <v>17491829.3543853</v>
@@ -8999,7 +8909,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
         <v>529142.093338465</v>
@@ -9142,7 +9052,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C75" t="n">
         <v>23585032.7453554</v>
@@ -9285,7 +9195,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C88" t="n">
         <v>1081163.3555871</v>
@@ -9428,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C101" t="n">
         <v>3337421.8441025</v>
@@ -9571,7 +9481,7 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C114" t="n">
         <v>508393.553825609</v>
@@ -9714,7 +9624,7 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C127" t="n">
         <v>1668857.87995984</v>
@@ -9857,7 +9767,7 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C140" t="n">
         <v>1281598.09749513</v>
@@ -10000,7 +9910,7 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C153" t="n">
         <v>347512.890268392</v>
@@ -10066,13 +9976,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -10083,7 +9993,7 @@
         <v>0.75136396365431</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -10094,7 +10004,7 @@
         <v>0.960646555234815</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -10105,7 +10015,7 @@
         <v>0.661124403284827</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -10116,7 +10026,7 @@
         <v>0.3843199168313</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -10127,7 +10037,7 @@
         <v>0.82370244624361</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -10138,7 +10048,7 @@
         <v>0.330360248464242</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -10149,7 +10059,7 @@
         <v>0.806762213260776</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -10160,18 +10070,18 @@
         <v>0.339358921431133</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>0.999999999999938</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -10182,7 +10092,7 @@
         <v>0.906327684005684</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -10193,7 +10103,7 @@
         <v>0.629551392225391</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -10204,7 +10114,7 @@
         <v>0.795038587488139</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -10215,7 +10125,7 @@
         <v>0.835712123682116</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10234,10 +10144,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -10248,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
         <v>5082847.46464793</v>
@@ -10259,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>11943755.3660636</v>
@@ -10270,7 +10180,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>13294673.6447685</v>
@@ -10281,7 +10191,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>26313705.9996449</v>
@@ -10292,7 +10202,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>16950319.7074762</v>
@@ -10303,7 +10213,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>44218590.5505107</v>
@@ -10314,7 +10224,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>36071219.7904081</v>
@@ -10325,7 +10235,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>119712058.859901</v>
@@ -10336,7 +10246,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
         <v>2223078.91562168</v>
@@ -10347,7 +10257,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>6421041.64407375</v>
@@ -10358,7 +10268,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>5704090.12979334</v>
@@ -10369,7 +10279,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>6802497.36249065</v>
@@ -10380,7 +10290,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
         <v>3427928.24809324</v>
@@ -10391,7 +10301,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>7426190.34280757</v>
@@ -10402,7 +10312,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
         <v>4961547.8260686</v>
@@ -10413,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
         <v>12924219.8525296</v>
@@ -10424,7 +10334,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
         <v>2701603.45071668</v>
@@ -10435,7 +10345,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
         <v>7060598.00589973</v>
@@ -10446,7 +10356,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>6736526.09451537</v>
@@ -10457,7 +10367,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>15617510.8582785</v>
@@ -10468,7 +10378,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n">
         <v>52409621.6678447</v>
@@ -10479,7 +10389,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
         <v>198295757.741494</v>
@@ -10490,7 +10400,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
         <v>216427838.921836</v>
@@ -10501,7 +10411,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="n">
         <v>1281176457.66234</v>
@@ -10512,7 +10422,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
         <v>42284195.5016626</v>
@@ -10523,7 +10433,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
         <v>87482674.0039343</v>
@@ -10534,7 +10444,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
         <v>107190678.435947</v>
@@ -10545,7 +10455,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="n">
         <v>166208168.894495</v>
@@ -10556,7 +10466,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n">
         <v>6613885.1960117</v>
@@ -10567,7 +10477,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="n">
         <v>15833647.447713</v>
@@ -10578,7 +10488,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="n">
         <v>24428791.9990423</v>
@@ -10589,7 +10499,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
         <v>25628004.0959269</v>
@@ -10597,10 +10507,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n">
         <v>7836307.02367207</v>
@@ -10608,10 +10518,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" t="n">
         <v>36421329.0911267</v>
@@ -10619,10 +10529,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
         <v>22566204.4084259</v>
@@ -10630,10 +10540,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
         <v>82893136.0867298</v>
@@ -10644,7 +10554,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
         <v>10054567.1106936</v>
@@ -10655,7 +10565,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" t="n">
         <v>23862850.1717271</v>
@@ -10666,7 +10576,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="n">
         <v>20760868.9525832</v>
@@ -10677,7 +10587,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
         <v>80979218.1183788</v>
@@ -10688,7 +10598,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n">
         <v>8896613.83998924</v>
@@ -10699,7 +10609,7 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="n">
         <v>15122023.0754346</v>
@@ -10710,7 +10620,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" t="n">
         <v>7398279.46048018</v>
@@ -10721,7 +10631,7 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" t="n">
         <v>20952027.4499459</v>
@@ -10732,7 +10642,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" t="n">
         <v>6632519.6868457</v>
@@ -10743,7 +10653,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" t="n">
         <v>15902355.0645292</v>
@@ -10754,7 +10664,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" t="n">
         <v>18174279.9264175</v>
@@ -10765,7 +10675,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
         <v>36860852.8501723</v>
@@ -10776,7 +10686,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
         <v>26229347.9031669</v>
@@ -10787,7 +10697,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" t="n">
         <v>65199237.8598982</v>
@@ -10798,7 +10708,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C52" t="n">
         <v>57263049.5155276</v>
@@ -10809,7 +10719,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
         <v>70675784.327885</v>
@@ -10831,10 +10741,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -10933,7 +10843,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>95211026.9571438</v>
@@ -11076,7 +10986,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
         <v>3467525.92589123</v>
@@ -11219,7 +11129,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
         <v>1021235.90753174</v>
@@ -11362,7 +11272,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C49" t="n">
         <v>1652527.4045072</v>
@@ -11505,7 +11415,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
         <v>21759935.6368527</v>
@@ -11648,7 +11558,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C75" t="n">
         <v>26604724.7406211</v>
@@ -11714,7 +11624,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12253,7 +12163,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -12264,7 +12174,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -12275,7 +12185,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -12286,7 +12196,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -12297,7 +12207,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -12308,7 +12218,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
